--- a/WM.xlsx
+++ b/WM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CH22"/>
+  <dimension ref="A1:CH23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,7 +696,7 @@
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>LWP754</t>
+          <t>LWP758</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
@@ -9922,6 +9922,438 @@
       <c r="CH22" t="inlineStr">
         <is>
           <t>6.744866e+00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LWP758</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2.176556e+00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>7.614723e+00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1.061412e+01</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>5.222804e+00</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1.385666e+01</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>9.927932e+00</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>4.419998e+00</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>1.749804e+00</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>1.089423e+01</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>4.949827e+00</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>4.461056e+00</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>8.102939e-01</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>1.007113e+01</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>3.971859e+00</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>1.584405e+01</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>4.461056e+00</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>2.378460e+01</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>LWP758</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>3.243683e+00</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>1.661905e+00</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>7.694937e+00</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>2.774940e+00</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>3.303601e+00</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>2.200221e+00</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>8.348805e+00</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>9.336860e+00</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>6.189578e+00</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>3.951900e+00</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>6.515631e+00</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>3.200276e+00</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>3.863494e+00</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>5.240933e+00</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>2.324456e+00</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>1.662289e+00</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>5.343794e-01</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>5.839715e+00</t>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>2.880158e+00</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>3.248666e+00</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>1.097800e+00</t>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>9.803526e+00</t>
+        </is>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>LWP758</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BD23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>1.332186e+00</t>
+        </is>
+      </c>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>8.427274e+01</t>
+        </is>
+      </c>
+      <c r="BG23" t="inlineStr">
+        <is>
+          <t>9.760060e+01</t>
+        </is>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="BI23" t="inlineStr">
+        <is>
+          <t>4.393711e-02</t>
+        </is>
+      </c>
+      <c r="BJ23" t="inlineStr">
+        <is>
+          <t>5.615234e+00</t>
+        </is>
+      </c>
+      <c r="BK23" t="inlineStr">
+        <is>
+          <t>2.146096e+00</t>
+        </is>
+      </c>
+      <c r="BL23" t="inlineStr">
+        <is>
+          <t>2.858998e+00</t>
+        </is>
+      </c>
+      <c r="BM23" t="inlineStr">
+        <is>
+          <t>2.858998e+00</t>
+        </is>
+      </c>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t>1.119265e-02</t>
+        </is>
+      </c>
+      <c r="BO23" t="inlineStr">
+        <is>
+          <t>1.219337e-02</t>
+        </is>
+      </c>
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>4.629942e+00</t>
+        </is>
+      </c>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t>1.000000e+00</t>
+        </is>
+      </c>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>3.585189e+01</t>
+        </is>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
+          <t>2.483205e-02</t>
+        </is>
+      </c>
+      <c r="BT23" t="inlineStr">
+        <is>
+          <t>-3.859145e+01</t>
+        </is>
+      </c>
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>-2.000000e+01</t>
+        </is>
+      </c>
+      <c r="BV23" t="inlineStr">
+        <is>
+          <t>2.087835e+01</t>
+        </is>
+      </c>
+      <c r="BW23" t="inlineStr">
+        <is>
+          <t>1.062929e+01</t>
+        </is>
+      </c>
+      <c r="BX23" t="inlineStr">
+        <is>
+          <t>8.317021e-02</t>
+        </is>
+      </c>
+      <c r="BY23" t="inlineStr">
+        <is>
+          <t>2.075195e+00</t>
+        </is>
+      </c>
+      <c r="BZ23" t="inlineStr">
+        <is>
+          <t>1.712270e+03</t>
+        </is>
+      </c>
+      <c r="CA23" t="inlineStr">
+        <is>
+          <t>2.038166e-01</t>
+        </is>
+      </c>
+      <c r="CB23" t="inlineStr">
+        <is>
+          <t>6.713867e+00</t>
+        </is>
+      </c>
+      <c r="CC23" t="inlineStr">
+        <is>
+          <t>4.637078e-02</t>
+        </is>
+      </c>
+      <c r="CD23" t="inlineStr">
+        <is>
+          <t>9.564863e-02</t>
+        </is>
+      </c>
+      <c r="CE23" t="inlineStr">
+        <is>
+          <t>-1.116521e-01</t>
+        </is>
+      </c>
+      <c r="CF23" t="inlineStr">
+        <is>
+          <t>-4.917817e-03</t>
+        </is>
+      </c>
+      <c r="CG23" t="inlineStr">
+        <is>
+          <t>7.367890e+00</t>
+        </is>
+      </c>
+      <c r="CH23" t="inlineStr">
+        <is>
+          <t>6.932134e+00</t>
         </is>
       </c>
     </row>

--- a/WM.xlsx
+++ b/WM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CH23"/>
+  <dimension ref="A1:CH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,7 +696,7 @@
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>LWP758</t>
+          <t>LWP761</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
@@ -9928,432 +9928,1728 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>LWP755</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.568524e+00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>3.452866e+00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>3.800935e+00</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1.953352e+00</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2.766270e+00</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>6.160042e+00</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>7.569428e+00</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>1.281932e+00</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>1.335582e+01</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>3.503303e+00</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>7.564569e+00</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2.695341e+00</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>7.425602e+00</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>1.106787e+01</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>4.648694e+00</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>1.372947e+01</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>LWP755</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>9.036406e-01</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>3.574057e+00</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>1.461735e+00</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>1.439690e+00</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>2.936056e+00</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>1.434086e+00</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>2.877558e+00</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>3.633808e+00</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>3.839497e+00</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>3.094520e+00</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>2.775648e+00</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>3.220508e+00</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>2.098697e+00</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>2.847479e+00</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>1.348383e+00</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>6.613798e-01</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>2.651686e-01</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>1.678285e+00</t>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>3.724887e+00</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>2.237908e+00</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>1.225250e+00</t>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>4.827481e+00</t>
+        </is>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>LWP755</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BD23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>1.299299e+00</t>
+        </is>
+      </c>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>6.616119e+01</t>
+        </is>
+      </c>
+      <c r="BG23" t="inlineStr">
+        <is>
+          <t>6.696598e+01</t>
+        </is>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="BI23" t="inlineStr">
+        <is>
+          <t>5.348800e-02</t>
+        </is>
+      </c>
+      <c r="BJ23" t="inlineStr">
+        <is>
+          <t>6.835937e+00</t>
+        </is>
+      </c>
+      <c r="BK23" t="inlineStr">
+        <is>
+          <t>2.555405e+00</t>
+        </is>
+      </c>
+      <c r="BL23" t="inlineStr">
+        <is>
+          <t>3.320236e+00</t>
+        </is>
+      </c>
+      <c r="BM23" t="inlineStr">
+        <is>
+          <t>2.592803e+00</t>
+        </is>
+      </c>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t>1.106274e-02</t>
+        </is>
+      </c>
+      <c r="BO23" t="inlineStr">
+        <is>
+          <t>1.157578e-02</t>
+        </is>
+      </c>
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>4.642359e+00</t>
+        </is>
+      </c>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t>1.000000e+00</t>
+        </is>
+      </c>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="BT23" t="inlineStr">
+        <is>
+          <t>-8.175272e+01</t>
+        </is>
+      </c>
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>-2.000000e+01</t>
+        </is>
+      </c>
+      <c r="BV23" t="inlineStr">
+        <is>
+          <t>2.665011e+01</t>
+        </is>
+      </c>
+      <c r="BW23" t="inlineStr">
+        <is>
+          <t>4.439500e+00</t>
+        </is>
+      </c>
+      <c r="BX23" t="inlineStr">
+        <is>
+          <t>3.473700e-02</t>
+        </is>
+      </c>
+      <c r="BY23" t="inlineStr">
+        <is>
+          <t>-1.708984e+00</t>
+        </is>
+      </c>
+      <c r="BZ23" t="inlineStr">
+        <is>
+          <t>2.302230e+03</t>
+        </is>
+      </c>
+      <c r="CA23" t="inlineStr">
+        <is>
+          <t>2.063105e-01</t>
+        </is>
+      </c>
+      <c r="CB23" t="inlineStr">
+        <is>
+          <t>-9.765625e-01</t>
+        </is>
+      </c>
+      <c r="CC23" t="inlineStr">
+        <is>
+          <t>5.223072e-02</t>
+        </is>
+      </c>
+      <c r="CD23" t="inlineStr">
+        <is>
+          <t>1.451724e-01</t>
+        </is>
+      </c>
+      <c r="CE23" t="inlineStr">
+        <is>
+          <t>-8.883434e-02</t>
+        </is>
+      </c>
+      <c r="CF23" t="inlineStr">
+        <is>
+          <t>1.819202e-02</t>
+        </is>
+      </c>
+      <c r="CG23" t="inlineStr">
+        <is>
+          <t>7.849501e+00</t>
+        </is>
+      </c>
+      <c r="CH23" t="inlineStr">
+        <is>
+          <t>6.917990e+00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>LWP758</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2.176556e+00</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.000000e+00</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>7.614723e+00</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>1.061412e+01</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.000000e+00</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>0.000000e+00</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>5.222804e+00</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>1.385666e+01</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>9.927932e+00</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>4.419998e+00</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>0.000000e+00</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
         <is>
           <t>1.749804e+00</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>1.089423e+01</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>4.949827e+00</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>4.461056e+00</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>8.102939e-01</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>0.000000e+00</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
         <is>
           <t>1.007113e+01</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>3.971859e+00</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>1.584405e+01</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>4.461056e+00</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>2.378460e+01</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AA24" t="inlineStr">
         <is>
           <t>LWP758</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>3.243683e+00</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AF24" t="inlineStr">
         <is>
           <t>1.661905e+00</t>
         </is>
       </c>
-      <c r="AG23" t="inlineStr">
+      <c r="AG24" t="inlineStr">
         <is>
           <t>7.694937e+00</t>
         </is>
       </c>
-      <c r="AH23" t="inlineStr">
+      <c r="AH24" t="inlineStr">
         <is>
           <t>2.774940e+00</t>
         </is>
       </c>
-      <c r="AI23" t="inlineStr">
+      <c r="AI24" t="inlineStr">
         <is>
           <t>3.303601e+00</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="AJ24" t="inlineStr">
         <is>
           <t>2.200221e+00</t>
         </is>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AK24" t="inlineStr">
         <is>
           <t>8.348805e+00</t>
         </is>
       </c>
-      <c r="AL23" t="inlineStr">
+      <c r="AL24" t="inlineStr">
         <is>
           <t>9.336860e+00</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AM24" t="inlineStr">
         <is>
           <t>6.189578e+00</t>
         </is>
       </c>
-      <c r="AN23" t="inlineStr">
+      <c r="AN24" t="inlineStr">
         <is>
           <t>3.951900e+00</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr">
+      <c r="AO24" t="inlineStr">
         <is>
           <t>6.515631e+00</t>
         </is>
       </c>
-      <c r="AP23" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>3.200276e+00</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>3.863494e+00</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AR24" t="inlineStr">
         <is>
           <t>5.240933e+00</t>
         </is>
       </c>
-      <c r="AS23" t="inlineStr">
+      <c r="AS24" t="inlineStr">
         <is>
           <t>2.324456e+00</t>
         </is>
       </c>
-      <c r="AT23" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>1.662289e+00</t>
         </is>
       </c>
-      <c r="AU23" t="inlineStr">
+      <c r="AU24" t="inlineStr">
         <is>
           <t>5.343794e-01</t>
         </is>
       </c>
-      <c r="AV23" t="inlineStr">
+      <c r="AV24" t="inlineStr">
         <is>
           <t>5.839715e+00</t>
         </is>
       </c>
-      <c r="AW23" t="inlineStr">
+      <c r="AW24" t="inlineStr">
         <is>
           <t>2.880158e+00</t>
         </is>
       </c>
-      <c r="AX23" t="inlineStr">
+      <c r="AX24" t="inlineStr">
         <is>
           <t>3.248666e+00</t>
         </is>
       </c>
-      <c r="AY23" t="inlineStr">
+      <c r="AY24" t="inlineStr">
         <is>
           <t>1.097800e+00</t>
         </is>
       </c>
-      <c r="AZ23" t="inlineStr">
+      <c r="AZ24" t="inlineStr">
         <is>
           <t>9.803526e+00</t>
         </is>
       </c>
-      <c r="BA23" t="inlineStr">
+      <c r="BA24" t="inlineStr">
         <is>
           <t>LWP758</t>
         </is>
       </c>
-      <c r="BB23" t="inlineStr">
+      <c r="BB24" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="BC23" t="inlineStr">
+      <c r="BC24" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="BD23" t="inlineStr">
+      <c r="BD24" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BE23" t="inlineStr">
+      <c r="BE24" t="inlineStr">
         <is>
           <t>1.332186e+00</t>
         </is>
       </c>
-      <c r="BF23" t="inlineStr">
+      <c r="BF24" t="inlineStr">
         <is>
           <t>8.427274e+01</t>
         </is>
       </c>
-      <c r="BG23" t="inlineStr">
+      <c r="BG24" t="inlineStr">
         <is>
           <t>9.760060e+01</t>
         </is>
       </c>
-      <c r="BH23" t="inlineStr">
-        <is>
-          <t>0.000000e+00</t>
-        </is>
-      </c>
-      <c r="BI23" t="inlineStr">
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="BI24" t="inlineStr">
         <is>
           <t>4.393711e-02</t>
         </is>
       </c>
-      <c r="BJ23" t="inlineStr">
+      <c r="BJ24" t="inlineStr">
         <is>
           <t>5.615234e+00</t>
         </is>
       </c>
-      <c r="BK23" t="inlineStr">
+      <c r="BK24" t="inlineStr">
         <is>
           <t>2.146096e+00</t>
         </is>
       </c>
-      <c r="BL23" t="inlineStr">
+      <c r="BL24" t="inlineStr">
         <is>
           <t>2.858998e+00</t>
         </is>
       </c>
-      <c r="BM23" t="inlineStr">
+      <c r="BM24" t="inlineStr">
         <is>
           <t>2.858998e+00</t>
         </is>
       </c>
-      <c r="BN23" t="inlineStr">
+      <c r="BN24" t="inlineStr">
         <is>
           <t>1.119265e-02</t>
         </is>
       </c>
-      <c r="BO23" t="inlineStr">
+      <c r="BO24" t="inlineStr">
         <is>
           <t>1.219337e-02</t>
         </is>
       </c>
-      <c r="BP23" t="inlineStr">
+      <c r="BP24" t="inlineStr">
         <is>
           <t>4.629942e+00</t>
         </is>
       </c>
-      <c r="BQ23" t="inlineStr">
+      <c r="BQ24" t="inlineStr">
         <is>
           <t>1.000000e+00</t>
         </is>
       </c>
-      <c r="BR23" t="inlineStr">
+      <c r="BR24" t="inlineStr">
         <is>
           <t>3.585189e+01</t>
         </is>
       </c>
-      <c r="BS23" t="inlineStr">
+      <c r="BS24" t="inlineStr">
         <is>
           <t>2.483205e-02</t>
         </is>
       </c>
-      <c r="BT23" t="inlineStr">
+      <c r="BT24" t="inlineStr">
         <is>
           <t>-3.859145e+01</t>
         </is>
       </c>
-      <c r="BU23" t="inlineStr">
+      <c r="BU24" t="inlineStr">
         <is>
           <t>-2.000000e+01</t>
         </is>
       </c>
-      <c r="BV23" t="inlineStr">
+      <c r="BV24" t="inlineStr">
         <is>
           <t>2.087835e+01</t>
         </is>
       </c>
-      <c r="BW23" t="inlineStr">
+      <c r="BW24" t="inlineStr">
         <is>
           <t>1.062929e+01</t>
         </is>
       </c>
-      <c r="BX23" t="inlineStr">
+      <c r="BX24" t="inlineStr">
         <is>
           <t>8.317021e-02</t>
         </is>
       </c>
-      <c r="BY23" t="inlineStr">
+      <c r="BY24" t="inlineStr">
         <is>
           <t>2.075195e+00</t>
         </is>
       </c>
-      <c r="BZ23" t="inlineStr">
+      <c r="BZ24" t="inlineStr">
         <is>
           <t>1.712270e+03</t>
         </is>
       </c>
-      <c r="CA23" t="inlineStr">
+      <c r="CA24" t="inlineStr">
         <is>
           <t>2.038166e-01</t>
         </is>
       </c>
-      <c r="CB23" t="inlineStr">
+      <c r="CB24" t="inlineStr">
         <is>
           <t>6.713867e+00</t>
         </is>
       </c>
-      <c r="CC23" t="inlineStr">
+      <c r="CC24" t="inlineStr">
         <is>
           <t>4.637078e-02</t>
         </is>
       </c>
-      <c r="CD23" t="inlineStr">
+      <c r="CD24" t="inlineStr">
         <is>
           <t>9.564863e-02</t>
         </is>
       </c>
-      <c r="CE23" t="inlineStr">
+      <c r="CE24" t="inlineStr">
         <is>
           <t>-1.116521e-01</t>
         </is>
       </c>
-      <c r="CF23" t="inlineStr">
+      <c r="CF24" t="inlineStr">
         <is>
           <t>-4.917817e-03</t>
         </is>
       </c>
-      <c r="CG23" t="inlineStr">
+      <c r="CG24" t="inlineStr">
         <is>
           <t>7.367890e+00</t>
         </is>
       </c>
-      <c r="CH23" t="inlineStr">
+      <c r="CH24" t="inlineStr">
         <is>
           <t>6.932134e+00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LWP759</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>4.799993e+00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.918345e+00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>3.595839e+00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>7.874415e+00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>5.668718e+00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1.100621e+00</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2.330497e+00</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1.209472e+01</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1.416537e+00</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>5.664489e+00</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>4.610659e+00</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2.608973e+00</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>3.079167e+00</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>2.844261e+00</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>8.039829e-01</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>5.688139e+00</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>3.944882e+00</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>1.351125e+01</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>LWP759</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>3.861913e+00</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>2.465033e+00</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>4.394073e+00</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>2.599006e+00</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>5.109651e+00</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>1.693849e+00</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>3.958417e+00</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>5.422452e+00</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>4.336642e+00</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>2.728259e+00</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>3.501409e+00</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>2.792378e+00</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>1.688291e+00</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>1.484728e+00</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>2.078845e+00</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>8.377660e-01</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>5.362300e-01</t>
+        </is>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>2.560576e+00</t>
+        </is>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>1.215560e+00</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>2.090638e+00</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>1.011239e+00</t>
+        </is>
+      </c>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>5.273897e+00</t>
+        </is>
+      </c>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>LWP759</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BD25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>1.226497e+00</t>
+        </is>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>6.822975e+01</t>
+        </is>
+      </c>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>8.784540e+01</t>
+        </is>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="BI25" t="inlineStr">
+        <is>
+          <t>3.056475e-02</t>
+        </is>
+      </c>
+      <c r="BJ25" t="inlineStr">
+        <is>
+          <t>3.906250e+00</t>
+        </is>
+      </c>
+      <c r="BK25" t="inlineStr">
+        <is>
+          <t>2.517905e+00</t>
+        </is>
+      </c>
+      <c r="BL25" t="inlineStr">
+        <is>
+          <t>3.088202e+00</t>
+        </is>
+      </c>
+      <c r="BM25" t="inlineStr">
+        <is>
+          <t>3.088202e+00</t>
+        </is>
+      </c>
+      <c r="BN25" t="inlineStr">
+        <is>
+          <t>1.246759e-02</t>
+        </is>
+      </c>
+      <c r="BO25" t="inlineStr">
+        <is>
+          <t>1.363969e-02</t>
+        </is>
+      </c>
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>4.628987e+00</t>
+        </is>
+      </c>
+      <c r="BQ25" t="inlineStr">
+        <is>
+          <t>6.004412e-03</t>
+        </is>
+      </c>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="BT25" t="inlineStr">
+        <is>
+          <t>-3.769084e+01</t>
+        </is>
+      </c>
+      <c r="BU25" t="inlineStr">
+        <is>
+          <t>-4.884141e+00</t>
+        </is>
+      </c>
+      <c r="BV25" t="inlineStr">
+        <is>
+          <t>2.471119e+01</t>
+        </is>
+      </c>
+      <c r="BW25" t="inlineStr">
+        <is>
+          <t>6.582653e+00</t>
+        </is>
+      </c>
+      <c r="BX25" t="inlineStr">
+        <is>
+          <t>5.150647e-02</t>
+        </is>
+      </c>
+      <c r="BY25" t="inlineStr">
+        <is>
+          <t>-6.103516e-01</t>
+        </is>
+      </c>
+      <c r="BZ25" t="inlineStr">
+        <is>
+          <t>1.811711e+03</t>
+        </is>
+      </c>
+      <c r="CA25" t="inlineStr">
+        <is>
+          <t>1.770691e-01</t>
+        </is>
+      </c>
+      <c r="CB25" t="inlineStr">
+        <is>
+          <t>-8.544922e-01</t>
+        </is>
+      </c>
+      <c r="CC25" t="inlineStr">
+        <is>
+          <t>3.176193e-02</t>
+        </is>
+      </c>
+      <c r="CD25" t="inlineStr">
+        <is>
+          <t>5.180913e-02</t>
+        </is>
+      </c>
+      <c r="CE25" t="inlineStr">
+        <is>
+          <t>-6.719786e-02</t>
+        </is>
+      </c>
+      <c r="CF25" t="inlineStr">
+        <is>
+          <t>7.770275e-03</t>
+        </is>
+      </c>
+      <c r="CG25" t="inlineStr">
+        <is>
+          <t>7.405211e+00</t>
+        </is>
+      </c>
+      <c r="CH25" t="inlineStr">
+        <is>
+          <t>7.052727e+00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LWP761</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1.815410e+00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.200836e+00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>3.490831e+00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1.320018e+00</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2.358258e+00</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>3.136941e+00</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>7.928509e+00</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>3.766035e-01</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>8.389811e+00</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>7.084138e-01</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>3.786831e+00</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>1.149221e+00</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>6.722666e+00</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>4.495245e+00</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2.469238e+00</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>1.106545e+01</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>LWP761</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>1.349910e+00</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>1.739395e+00</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>1.954656e+00</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>1.301996e+00</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>1.424248e+00</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>1.126505e+00</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>3.113302e+00</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>3.734888e+00</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>3.396402e+00</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>1.262196e+00</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>2.707515e+00</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>4.100287e+00</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>7.440232e-01</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>1.421042e+00</t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>1.242051e+00</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>6.292595e-01</t>
+        </is>
+      </c>
+      <c r="AU26" t="inlineStr">
+        <is>
+          <t>2.527713e-01</t>
+        </is>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>1.546261e+00</t>
+        </is>
+      </c>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>3.582856e+00</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>1.374915e+00</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>5.590648e-01</t>
+        </is>
+      </c>
+      <c r="AZ26" t="inlineStr">
+        <is>
+          <t>3.957089e+00</t>
+        </is>
+      </c>
+      <c r="BA26" t="inlineStr">
+        <is>
+          <t>LWP761</t>
+        </is>
+      </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BD26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t>1.127374e+00</t>
+        </is>
+      </c>
+      <c r="BF26" t="inlineStr">
+        <is>
+          <t>6.693541e+01</t>
+        </is>
+      </c>
+      <c r="BG26" t="inlineStr">
+        <is>
+          <t>7.083895e+01</t>
+        </is>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="BI26" t="inlineStr">
+        <is>
+          <t>3.820582e-02</t>
+        </is>
+      </c>
+      <c r="BJ26" t="inlineStr">
+        <is>
+          <t>4.882812e+00</t>
+        </is>
+      </c>
+      <c r="BK26" t="inlineStr">
+        <is>
+          <t>2.414730e+00</t>
+        </is>
+      </c>
+      <c r="BL26" t="inlineStr">
+        <is>
+          <t>2.722304e+00</t>
+        </is>
+      </c>
+      <c r="BM26" t="inlineStr">
+        <is>
+          <t>2.722304e+00</t>
+        </is>
+      </c>
+      <c r="BN26" t="inlineStr">
+        <is>
+          <t>9.426924e-03</t>
+        </is>
+      </c>
+      <c r="BO26" t="inlineStr">
+        <is>
+          <t>9.550788e-03</t>
+        </is>
+      </c>
+      <c r="BP26" t="inlineStr">
+        <is>
+          <t>4.687251e+00</t>
+        </is>
+      </c>
+      <c r="BQ26" t="inlineStr">
+        <is>
+          <t>1.000000e+00</t>
+        </is>
+      </c>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="BS26" t="inlineStr">
+        <is>
+          <t>0.000000e+00</t>
+        </is>
+      </c>
+      <c r="BT26" t="inlineStr">
+        <is>
+          <t>-1.863674e+01</t>
+        </is>
+      </c>
+      <c r="BU26" t="inlineStr">
+        <is>
+          <t>-5.579454e+00</t>
+        </is>
+      </c>
+      <c r="BV26" t="inlineStr">
+        <is>
+          <t>2.301222e+01</t>
+        </is>
+      </c>
+      <c r="BW26" t="inlineStr">
+        <is>
+          <t>1.272136e+01</t>
+        </is>
+      </c>
+      <c r="BX26" t="inlineStr">
+        <is>
+          <t>9.953898e-02</t>
+        </is>
+      </c>
+      <c r="BY26" t="inlineStr">
+        <is>
+          <t>-2.807617e+00</t>
+        </is>
+      </c>
+      <c r="BZ26" t="inlineStr">
+        <is>
+          <t>2.409458e+03</t>
+        </is>
+      </c>
+      <c r="CA26" t="inlineStr">
+        <is>
+          <t>3.006437e-01</t>
+        </is>
+      </c>
+      <c r="CB26" t="inlineStr">
+        <is>
+          <t>-4.394531e+00</t>
+        </is>
+      </c>
+      <c r="CC26" t="inlineStr">
+        <is>
+          <t>6.601062e-02</t>
+        </is>
+      </c>
+      <c r="CD26" t="inlineStr">
+        <is>
+          <t>1.253819e-01</t>
+        </is>
+      </c>
+      <c r="CE26" t="inlineStr">
+        <is>
+          <t>-1.449465e-01</t>
+        </is>
+      </c>
+      <c r="CF26" t="inlineStr">
+        <is>
+          <t>5.875995e-03</t>
+        </is>
+      </c>
+      <c r="CG26" t="inlineStr">
+        <is>
+          <t>7.381918e+00</t>
+        </is>
+      </c>
+      <c r="CH26" t="inlineStr">
+        <is>
+          <t>7.052304e+00</t>
         </is>
       </c>
     </row>

--- a/WM.xlsx
+++ b/WM.xlsx
@@ -696,7 +696,7 @@
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>LWP767</t>
+          <t>LWP767_morning</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LWP767</t>
+          <t>LWP767_evening</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>LWP767</t>
+          <t>LWP767_evening</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>LWP767</t>
+          <t>LWP767_evening</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LWP762</t>
+          <t>LWP762_morning</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>LWP762</t>
+          <t>LWP762_morning</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>LWP762</t>
+          <t>LWP762_morning</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LWP772</t>
+          <t>LWP772_morning</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>LWP772</t>
+          <t>LWP772_morning</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>LWP772</t>
+          <t>LWP772_morning</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LWP774</t>
+          <t>LWP774_evening</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>LWP774</t>
+          <t>LWP774_evening</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>LWP774</t>
+          <t>LWP774_evening</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LWP719</t>
+          <t>LWP719_morning</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>LWP719</t>
+          <t>LWP719_morning</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>LWP719</t>
+          <t>LWP719_morning</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LWP766</t>
+          <t>LWP766_evening</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>LWP766</t>
+          <t>LWP766_evening</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>LWP766</t>
+          <t>LWP766_evening</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -3460,7 +3460,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LWP776</t>
+          <t>LWP776_evening</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>LWP776</t>
+          <t>LWP776_evening</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>LWP776</t>
+          <t>LWP776_evening</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3892,7 +3892,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LWP718</t>
+          <t>LWP718_morning</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>LWP718</t>
+          <t>LWP718_morning</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>LWP718</t>
+          <t>LWP718_morning</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -4324,7 +4324,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LWP764</t>
+          <t>LWP764_evening</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>LWP764</t>
+          <t>LWP764_evening</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>LWP764</t>
+          <t>LWP764_evening</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4756,7 +4756,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LWP711</t>
+          <t>LWP711_morning</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>LWP711</t>
+          <t>LWP711_morning</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>LWP711</t>
+          <t>LWP711_morning</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -5188,7 +5188,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LWP773</t>
+          <t>LWP773_morning</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>LWP773</t>
+          <t>LWP773_morning</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>LWP773</t>
+          <t>LWP773_morning</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5620,7 +5620,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LWP763</t>
+          <t>LWP763_morning</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>LWP763</t>
+          <t>LWP763_morning</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>LWP763</t>
+          <t>LWP763_morning</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -6052,7 +6052,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LWP777</t>
+          <t>LWP777_evening</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>LWP777</t>
+          <t>LWP777_evening</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>LWP777</t>
+          <t>LWP777_evening</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6484,7 +6484,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LWP768</t>
+          <t>LWP768_morning</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>LWP768</t>
+          <t>LWP768_morning</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="BA15" t="inlineStr">
         <is>
-          <t>LWP768</t>
+          <t>LWP768_morning</t>
         </is>
       </c>
       <c r="BB15" t="inlineStr">
@@ -6916,7 +6916,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LWP771</t>
+          <t>LWP771_morning</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>LWP771</t>
+          <t>LWP771_morning</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>LWP771</t>
+          <t>LWP771_morning</t>
         </is>
       </c>
       <c r="BB16" t="inlineStr">
@@ -7348,7 +7348,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LWP713</t>
+          <t>LWP713_morning</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7478,7 +7478,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>LWP713</t>
+          <t>LWP713_morning</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>LWP713</t>
+          <t>LWP713_morning</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7780,7 +7780,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LWP770</t>
+          <t>LWP770_morning</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7910,7 +7910,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>LWP770</t>
+          <t>LWP770_morning</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>LWP770</t>
+          <t>LWP770_morning</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -8212,7 +8212,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LWP712</t>
+          <t>LWP712_morning</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>LWP712</t>
+          <t>LWP712_morning</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -8472,7 +8472,7 @@
       </c>
       <c r="BA19" t="inlineStr">
         <is>
-          <t>LWP712</t>
+          <t>LWP712_morning</t>
         </is>
       </c>
       <c r="BB19" t="inlineStr">
@@ -8644,7 +8644,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LWP769</t>
+          <t>LWP769_evening</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -8774,7 +8774,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>LWP769</t>
+          <t>LWP769_evening</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -8904,7 +8904,7 @@
       </c>
       <c r="BA20" t="inlineStr">
         <is>
-          <t>LWP769</t>
+          <t>LWP769_evening</t>
         </is>
       </c>
       <c r="BB20" t="inlineStr">
@@ -9076,7 +9076,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LWP769</t>
+          <t>LWP769_morning</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>LWP769</t>
+          <t>LWP769_morning</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="BA21" t="inlineStr">
         <is>
-          <t>LWP769</t>
+          <t>LWP769_morning</t>
         </is>
       </c>
       <c r="BB21" t="inlineStr">
@@ -9508,7 +9508,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LWP721</t>
+          <t>LWP721_morning</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -9638,7 +9638,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>LWP721</t>
+          <t>LWP721_morning</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -9768,7 +9768,7 @@
       </c>
       <c r="BA22" t="inlineStr">
         <is>
-          <t>LWP721</t>
+          <t>LWP721_morning</t>
         </is>
       </c>
       <c r="BB22" t="inlineStr">
@@ -9940,7 +9940,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LWP771</t>
+          <t>LWP771_evening</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -10070,7 +10070,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>LWP771</t>
+          <t>LWP771_evening</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -10200,7 +10200,7 @@
       </c>
       <c r="BA23" t="inlineStr">
         <is>
-          <t>LWP771</t>
+          <t>LWP771_evening</t>
         </is>
       </c>
       <c r="BB23" t="inlineStr">
@@ -10372,7 +10372,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LWP765</t>
+          <t>LWP765_morning</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -10502,7 +10502,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>LWP765</t>
+          <t>LWP765_morning</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="BA24" t="inlineStr">
         <is>
-          <t>LWP765</t>
+          <t>LWP765_morning</t>
         </is>
       </c>
       <c r="BB24" t="inlineStr">
@@ -10804,7 +10804,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LWP775</t>
+          <t>LWP775_morning</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -10934,7 +10934,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>LWP775</t>
+          <t>LWP775_morning</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="BA25" t="inlineStr">
         <is>
-          <t>LWP775</t>
+          <t>LWP775_morning</t>
         </is>
       </c>
       <c r="BB25" t="inlineStr">
@@ -11236,7 +11236,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LWP717</t>
+          <t>LWP717_morning</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -11366,7 +11366,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>LWP717</t>
+          <t>LWP717_morning</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -11496,7 +11496,7 @@
       </c>
       <c r="BA26" t="inlineStr">
         <is>
-          <t>LWP717</t>
+          <t>LWP717_morning</t>
         </is>
       </c>
       <c r="BB26" t="inlineStr">
@@ -11668,7 +11668,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LWP768</t>
+          <t>LWP768_evening</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>LWP768</t>
+          <t>LWP768_evening</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -11928,7 +11928,7 @@
       </c>
       <c r="BA27" t="inlineStr">
         <is>
-          <t>LWP768</t>
+          <t>LWP768_evening</t>
         </is>
       </c>
       <c r="BB27" t="inlineStr">
@@ -12100,7 +12100,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LWP774</t>
+          <t>LWP774_morning</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>LWP774</t>
+          <t>LWP774_morning</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -12360,7 +12360,7 @@
       </c>
       <c r="BA28" t="inlineStr">
         <is>
-          <t>LWP774</t>
+          <t>LWP774_morning</t>
         </is>
       </c>
       <c r="BB28" t="inlineStr">
@@ -12532,7 +12532,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LWP764</t>
+          <t>LWP764_morning</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -12662,7 +12662,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>LWP764</t>
+          <t>LWP764_morning</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="BA29" t="inlineStr">
         <is>
-          <t>LWP764</t>
+          <t>LWP764_morning</t>
         </is>
       </c>
       <c r="BB29" t="inlineStr">
@@ -12964,7 +12964,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LWP716</t>
+          <t>LWP716_morning</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -13094,7 +13094,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>LWP716</t>
+          <t>LWP716_morning</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -13224,7 +13224,7 @@
       </c>
       <c r="BA30" t="inlineStr">
         <is>
-          <t>LWP716</t>
+          <t>LWP716_morning</t>
         </is>
       </c>
       <c r="BB30" t="inlineStr">
@@ -13396,7 +13396,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LWP720</t>
+          <t>LWP720_morning</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -13526,7 +13526,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>LWP720</t>
+          <t>LWP720_morning</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="BA31" t="inlineStr">
         <is>
-          <t>LWP720</t>
+          <t>LWP720_morning</t>
         </is>
       </c>
       <c r="BB31" t="inlineStr">
@@ -13828,7 +13828,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LWP770</t>
+          <t>LWP770_evening</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>LWP770</t>
+          <t>LWP770_evening</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -14088,7 +14088,7 @@
       </c>
       <c r="BA32" t="inlineStr">
         <is>
-          <t>LWP770</t>
+          <t>LWP770_evening</t>
         </is>
       </c>
       <c r="BB32" t="inlineStr">
@@ -14260,7 +14260,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LWP712</t>
+          <t>LWP712_evening</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -14390,7 +14390,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>LWP712</t>
+          <t>LWP712_evening</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -14520,7 +14520,7 @@
       </c>
       <c r="BA33" t="inlineStr">
         <is>
-          <t>LWP712</t>
+          <t>LWP712_evening</t>
         </is>
       </c>
       <c r="BB33" t="inlineStr">
@@ -14692,7 +14692,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LWP714</t>
+          <t>LWP714_morning</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -14822,7 +14822,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>LWP714</t>
+          <t>LWP714_morning</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -14952,7 +14952,7 @@
       </c>
       <c r="BA34" t="inlineStr">
         <is>
-          <t>LWP714</t>
+          <t>LWP714_morning</t>
         </is>
       </c>
       <c r="BB34" t="inlineStr">
@@ -15124,7 +15124,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LWP766</t>
+          <t>LWP766_morning</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -15254,7 +15254,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>LWP766</t>
+          <t>LWP766_morning</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -15384,7 +15384,7 @@
       </c>
       <c r="BA35" t="inlineStr">
         <is>
-          <t>LWP766</t>
+          <t>LWP766_morning</t>
         </is>
       </c>
       <c r="BB35" t="inlineStr">
@@ -15556,7 +15556,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LWP766</t>
+          <t>LWP766_morning</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -15686,7 +15686,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>LWP766</t>
+          <t>LWP766_morning</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -15816,7 +15816,7 @@
       </c>
       <c r="BA36" t="inlineStr">
         <is>
-          <t>LWP766</t>
+          <t>LWP766_morning</t>
         </is>
       </c>
       <c r="BB36" t="inlineStr">
@@ -15988,7 +15988,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LWP776</t>
+          <t>LWP776_morning</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -16118,7 +16118,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>LWP776</t>
+          <t>LWP776_morning</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -16248,7 +16248,7 @@
       </c>
       <c r="BA37" t="inlineStr">
         <is>
-          <t>LWP776</t>
+          <t>LWP776_morning</t>
         </is>
       </c>
       <c r="BB37" t="inlineStr">
@@ -16420,7 +16420,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LWP710</t>
+          <t>LWP710_evening</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -16550,7 +16550,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>LWP710</t>
+          <t>LWP710_evening</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -16680,7 +16680,7 @@
       </c>
       <c r="BA38" t="inlineStr">
         <is>
-          <t>LWP710</t>
+          <t>LWP710_evening</t>
         </is>
       </c>
       <c r="BB38" t="inlineStr">
@@ -16852,7 +16852,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LWP765</t>
+          <t>LWP765_evening</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -16982,7 +16982,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>LWP765</t>
+          <t>LWP765_evening</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -17112,7 +17112,7 @@
       </c>
       <c r="BA39" t="inlineStr">
         <is>
-          <t>LWP765</t>
+          <t>LWP765_evening</t>
         </is>
       </c>
       <c r="BB39" t="inlineStr">
@@ -17284,7 +17284,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LWP762</t>
+          <t>LWP762_evening</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -17414,7 +17414,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>LWP762</t>
+          <t>LWP762_evening</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -17544,7 +17544,7 @@
       </c>
       <c r="BA40" t="inlineStr">
         <is>
-          <t>LWP762</t>
+          <t>LWP762_evening</t>
         </is>
       </c>
       <c r="BB40" t="inlineStr">
@@ -17716,7 +17716,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LWP762</t>
+          <t>LWP762_evening</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -17846,7 +17846,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>LWP762</t>
+          <t>LWP762_evening</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -17976,7 +17976,7 @@
       </c>
       <c r="BA41" t="inlineStr">
         <is>
-          <t>LWP762</t>
+          <t>LWP762_evening</t>
         </is>
       </c>
       <c r="BB41" t="inlineStr">
@@ -18148,7 +18148,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LWP772</t>
+          <t>LWP772_evening</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -18278,7 +18278,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>LWP772</t>
+          <t>LWP772_evening</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -18408,7 +18408,7 @@
       </c>
       <c r="BA42" t="inlineStr">
         <is>
-          <t>LWP772</t>
+          <t>LWP772_evening</t>
         </is>
       </c>
       <c r="BB42" t="inlineStr">
@@ -18580,7 +18580,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LWP775</t>
+          <t>LWP775_evening</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -18710,7 +18710,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>LWP775</t>
+          <t>LWP775_evening</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -18840,7 +18840,7 @@
       </c>
       <c r="BA43" t="inlineStr">
         <is>
-          <t>LWP775</t>
+          <t>LWP775_evening</t>
         </is>
       </c>
       <c r="BB43" t="inlineStr">
@@ -19012,7 +19012,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LWP711</t>
+          <t>LWP711_evening</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -19142,7 +19142,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>LWP711</t>
+          <t>LWP711_evening</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -19272,7 +19272,7 @@
       </c>
       <c r="BA44" t="inlineStr">
         <is>
-          <t>LWP711</t>
+          <t>LWP711_evening</t>
         </is>
       </c>
       <c r="BB44" t="inlineStr">
@@ -19444,7 +19444,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LWP773</t>
+          <t>LWP773_evening</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -19574,7 +19574,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>LWP773</t>
+          <t>LWP773_evening</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -19704,7 +19704,7 @@
       </c>
       <c r="BA45" t="inlineStr">
         <is>
-          <t>LWP773</t>
+          <t>LWP773_evening</t>
         </is>
       </c>
       <c r="BB45" t="inlineStr">
@@ -19876,7 +19876,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LWP763</t>
+          <t>LWP763_evening</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -20006,7 +20006,7 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>LWP763</t>
+          <t>LWP763_evening</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="BA46" t="inlineStr">
         <is>
-          <t>LWP763</t>
+          <t>LWP763_evening</t>
         </is>
       </c>
       <c r="BB46" t="inlineStr">
@@ -20308,7 +20308,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LWP715</t>
+          <t>LWP715_morning</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -20438,7 +20438,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>LWP715</t>
+          <t>LWP715_morning</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -20568,7 +20568,7 @@
       </c>
       <c r="BA47" t="inlineStr">
         <is>
-          <t>LWP715</t>
+          <t>LWP715_morning</t>
         </is>
       </c>
       <c r="BB47" t="inlineStr">
@@ -20740,7 +20740,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LWP777</t>
+          <t>LWP777_morning</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -20870,7 +20870,7 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>LWP777</t>
+          <t>LWP777_morning</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -21000,7 +21000,7 @@
       </c>
       <c r="BA48" t="inlineStr">
         <is>
-          <t>LWP777</t>
+          <t>LWP777_morning</t>
         </is>
       </c>
       <c r="BB48" t="inlineStr">
@@ -21172,7 +21172,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LWP767</t>
+          <t>LWP767_morning</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -21302,7 +21302,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>LWP767</t>
+          <t>LWP767_morning</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -21432,7 +21432,7 @@
       </c>
       <c r="BA49" t="inlineStr">
         <is>
-          <t>LWP767</t>
+          <t>LWP767_morning</t>
         </is>
       </c>
       <c r="BB49" t="inlineStr">
